--- a/biology/Zoologie/Charon_(genre)/Charon_(genre).xlsx
+++ b/biology/Zoologie/Charon_(genre)/Charon_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charon est un genre d'amblypyges de la famille des Charontidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Océanie, en Asie du Sud-Est à Taïwan et à La Réunion[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Océanie, en Asie du Sud-Est à Taïwan et à La Réunion.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Whip spiders of the World (version 1.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Whip spiders of the World (version 1.0) :
 Charon forsteri (Dunn, 1949)
 Charon gervaisi Harvey &amp; West, 1998
 Charon grayi (Gervais, 1842)
@@ -553,7 +569,7 @@
 et décrites depuis
 Charon ambreae Reveillion &amp; Maquart, 2018
 Charon dantei Maquart &amp; Reveillion, 2018
-Charon annulipes est un nomen dubium[4].
+Charon annulipes est un nomen dubium.
 </t>
         </is>
       </c>
@@ -582,7 +598,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Karsch, 1879 : Ueber eine neue Eintheilung der Tarantuliden (Phrynidae auct.). Archiv für Naturgeschichte, vol. 45, p. 189–197 (texte intégral).</t>
         </is>
